--- a/20170514-listings/builds/production/data/maindata.xlsx
+++ b/20170514-listings/builds/production/data/maindata.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="388">
   <si>
     <t>GEOID</t>
   </si>
@@ -1166,18 +1166,46 @@
   </si>
   <si>
     <t>Source: Zillow, Minneapolis Area Association of Realtors</t>
+  </si>
+  <si>
+    <t>tab</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>Zillow, Minneapolis Area Association of Realtors</t>
+  </si>
+  <si>
+    <t>Home ownership statistics for Minneapolis and St. Paul neighborhoods ranging from 2003 to 2016</t>
+  </si>
+  <si>
+    <t>listings</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="136"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1201,8 +1229,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1536,7 +1565,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BP112"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="T1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
@@ -21972,22 +22001,47 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="80.83203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>2017</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="1" customFormat="1">
+      <c r="A6" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>387</v>
+      </c>
+      <c r="B7" t="s">
+        <v>386</v>
+      </c>
+      <c r="C7" t="s">
+        <v>385</v>
       </c>
     </row>
   </sheetData>

--- a/20170514-listings/builds/production/data/maindata.xlsx
+++ b/20170514-listings/builds/production/data/maindata.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="listings" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="source" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
@@ -1177,13 +1177,13 @@
     <t>source</t>
   </si>
   <si>
-    <t>Zillow, Minneapolis Area Association of Realtors</t>
-  </si>
-  <si>
     <t>Home ownership statistics for Minneapolis and St. Paul neighborhoods ranging from 2003 to 2016</t>
   </si>
   <si>
     <t>listings</t>
+  </si>
+  <si>
+    <t>Minneapolis Area Association of Realtors</t>
   </si>
 </sst>
 </file>
@@ -1196,7 +1196,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="136"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -22004,7 +22003,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -22035,13 +22034,13 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
+        <v>386</v>
+      </c>
+      <c r="B7" t="s">
+        <v>385</v>
+      </c>
+      <c r="C7" t="s">
         <v>387</v>
-      </c>
-      <c r="B7" t="s">
-        <v>386</v>
-      </c>
-      <c r="C7" t="s">
-        <v>385</v>
       </c>
     </row>
   </sheetData>

--- a/20170514-listings/builds/production/data/maindata.xlsx
+++ b/20170514-listings/builds/production/data/maindata.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26330"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="18380" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="3680" yWindow="540" windowWidth="25600" windowHeight="18380" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="listings" sheetId="1" r:id="rId1"/>
     <sheet name="source" sheetId="2" r:id="rId2"/>
+    <sheet name="layout" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="456">
   <si>
     <t>GEOID</t>
   </si>
@@ -1184,13 +1185,217 @@
   </si>
   <si>
     <t>Minneapolis Area Association of Realtors</t>
+  </si>
+  <si>
+    <t>Geographic ID</t>
+  </si>
+  <si>
+    <t>City or township</t>
+  </si>
+  <si>
+    <t>State (MN, WI)</t>
+  </si>
+  <si>
+    <t>Latitude coordinate</t>
+  </si>
+  <si>
+    <t>Longitude coordinate</t>
+  </si>
+  <si>
+    <t>Number of starter homes in 2016</t>
+  </si>
+  <si>
+    <t>Number of tradeup homes in 2016</t>
+  </si>
+  <si>
+    <t>Number of premium homes in 2016</t>
+  </si>
+  <si>
+    <t>Number of starter homes in 2017</t>
+  </si>
+  <si>
+    <t>Number of tradeup homes in 2017</t>
+  </si>
+  <si>
+    <t>Number of premium homes in 2017</t>
+  </si>
+  <si>
+    <t>Total homes in 2016</t>
+  </si>
+  <si>
+    <t>Total homes in 2017</t>
+  </si>
+  <si>
+    <t>Percent change in number of homes between 2016 and 2017</t>
+  </si>
+  <si>
+    <t>Total negative equity</t>
+  </si>
+  <si>
+    <t>Effective negative equity rate</t>
+  </si>
+  <si>
+    <t>Proper city or township name</t>
+  </si>
+  <si>
+    <t>City, State</t>
+  </si>
+  <si>
+    <t>Display name of city or township</t>
+  </si>
+  <si>
+    <t>Price per square foot in 2003</t>
+  </si>
+  <si>
+    <t>Price per square foot in 2004</t>
+  </si>
+  <si>
+    <t>Price per square foot in 2005</t>
+  </si>
+  <si>
+    <t>Price per square foot in 2006</t>
+  </si>
+  <si>
+    <t>Price per square foot in 2007</t>
+  </si>
+  <si>
+    <t>Price per square foot in 2008</t>
+  </si>
+  <si>
+    <t>Price per square foot in 2009</t>
+  </si>
+  <si>
+    <t>Price per square foot in 2010</t>
+  </si>
+  <si>
+    <t>Price per square foot in 2011</t>
+  </si>
+  <si>
+    <t>Price per square foot in 2012</t>
+  </si>
+  <si>
+    <t>Price per square foot in 2013</t>
+  </si>
+  <si>
+    <t>Price per square foot in 2014</t>
+  </si>
+  <si>
+    <t>Price per square foot in 2015</t>
+  </si>
+  <si>
+    <t>Price per square foot in 2016</t>
+  </si>
+  <si>
+    <t>Percent of distressed homes</t>
+  </si>
+  <si>
+    <t>Average days on market</t>
+  </si>
+  <si>
+    <t>Percent of original price</t>
+  </si>
+  <si>
+    <t>Average price per square foot from 2012 to 2015</t>
+  </si>
+  <si>
+    <t>Percent change in price per square foot from average, 2012 to 2015</t>
+  </si>
+  <si>
+    <t>Ranking in price per square foot</t>
+  </si>
+  <si>
+    <t>Ranking in average days on market</t>
+  </si>
+  <si>
+    <t>Ranking in percent of original price</t>
+  </si>
+  <si>
+    <t>Ranking in percent of distressed homes</t>
+  </si>
+  <si>
+    <t>Maximum price before 2016</t>
+  </si>
+  <si>
+    <t>Difference between previous maxium price and 2016 maximum</t>
+  </si>
+  <si>
+    <t>Minimum price</t>
+  </si>
+  <si>
+    <t>Percent of homes that are new construction</t>
+  </si>
+  <si>
+    <t>Percent of homes that are condos</t>
+  </si>
+  <si>
+    <t>Index ranking</t>
+  </si>
+  <si>
+    <t>Median household income</t>
+  </si>
+  <si>
+    <t>Percent of homes that are single family</t>
+  </si>
+  <si>
+    <t>Percent of homes that are large apartment buildings</t>
+  </si>
+  <si>
+    <t>Percent of residents who rent</t>
+  </si>
+  <si>
+    <t>Percent of residents with children</t>
+  </si>
+  <si>
+    <t>CS in 2003</t>
+  </si>
+  <si>
+    <t>CS in 2004</t>
+  </si>
+  <si>
+    <t>CS in 2005</t>
+  </si>
+  <si>
+    <t>CS in 2006</t>
+  </si>
+  <si>
+    <t>CS in 2007</t>
+  </si>
+  <si>
+    <t>CS in 2008</t>
+  </si>
+  <si>
+    <t>CS in 2009</t>
+  </si>
+  <si>
+    <t>CS in 2010</t>
+  </si>
+  <si>
+    <t>CS in 2011</t>
+  </si>
+  <si>
+    <t>CS in 2012</t>
+  </si>
+  <si>
+    <t>CS in 2013</t>
+  </si>
+  <si>
+    <t>CS in 2014</t>
+  </si>
+  <si>
+    <t>CS in 2015</t>
+  </si>
+  <si>
+    <t>CS in 2016</t>
+  </si>
+  <si>
+    <t>Combined index score (Rank_PPSF + Rank_MarketDays + Rank_PctOrig + Rank_PctDistressed)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1205,6 +1410,29 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1225,14 +1453,31 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="9">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1564,7 +1809,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BP112"/>
   <sheetViews>
-    <sheetView topLeftCell="T1" workbookViewId="0"/>
+    <sheetView topLeftCell="BA1" workbookViewId="0">
+      <selection activeCell="BF1" sqref="BF1:BI1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
@@ -21990,6 +22237,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -22002,7 +22250,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -22051,4 +22299,577 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:B70"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="C76" sqref="C76"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="21.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>29</v>
+      </c>
+      <c r="B32" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>30</v>
+      </c>
+      <c r="B33" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>31</v>
+      </c>
+      <c r="B34" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>32</v>
+      </c>
+      <c r="B35" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>33</v>
+      </c>
+      <c r="B36" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>34</v>
+      </c>
+      <c r="B37" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>35</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>36</v>
+      </c>
+      <c r="B39" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>37</v>
+      </c>
+      <c r="B40" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>38</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>39</v>
+      </c>
+      <c r="B42" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>40</v>
+      </c>
+      <c r="B43" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>41</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>42</v>
+      </c>
+      <c r="B45" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>43</v>
+      </c>
+      <c r="B46" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>44</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>45</v>
+      </c>
+      <c r="B48" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>46</v>
+      </c>
+      <c r="B49" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>47</v>
+      </c>
+      <c r="B50" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>48</v>
+      </c>
+      <c r="B51" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>49</v>
+      </c>
+      <c r="B52" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>50</v>
+      </c>
+      <c r="B53" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>51</v>
+      </c>
+      <c r="B54" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>52</v>
+      </c>
+      <c r="B55" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
+        <v>53</v>
+      </c>
+      <c r="B56" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
+        <v>54</v>
+      </c>
+      <c r="B57" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
+        <v>55</v>
+      </c>
+      <c r="B58" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
+        <v>56</v>
+      </c>
+      <c r="B59" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" t="s">
+        <v>57</v>
+      </c>
+      <c r="B60" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" t="s">
+        <v>58</v>
+      </c>
+      <c r="B61" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" t="s">
+        <v>59</v>
+      </c>
+      <c r="B62" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" t="s">
+        <v>60</v>
+      </c>
+      <c r="B63" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" t="s">
+        <v>61</v>
+      </c>
+      <c r="B64" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" t="s">
+        <v>62</v>
+      </c>
+      <c r="B65" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" t="s">
+        <v>63</v>
+      </c>
+      <c r="B66" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" t="s">
+        <v>64</v>
+      </c>
+      <c r="B67" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" t="s">
+        <v>65</v>
+      </c>
+      <c r="B68" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" t="s">
+        <v>66</v>
+      </c>
+      <c r="B69" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" t="s">
+        <v>67</v>
+      </c>
+      <c r="B70" t="s">
+        <v>440</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>